--- a/inst/extdata/Machines - Data/Wood furnaces/Wood furnaces.xlsx
+++ b/inst/extdata/Machines - Data/Wood furnaces/Wood furnaces.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,18 +883,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,14 +917,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57BA165-9822-445B-B328-4F06AD982831}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF083C1D-CE62-48EF-BAF9-9D27C80F6E5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -939,4 +931,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57BA165-9822-445B-B328-4F06AD982831}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/Machines - Data/Wood furnaces/Wood furnaces.xlsx
+++ b/inst/extdata/Machines - Data/Wood furnaces/Wood furnaces.xlsx
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -177,6 +177,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +517,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +619,10 @@
       <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>1.6770082173402701E-2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
